--- a/Data Source/RAW/Data2016.xlsx
+++ b/Data Source/RAW/Data2016.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/widifirmaan/Desktop/matlab/Data Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/widifirmaan/Desktop/Skripsi/matlab/Data Source/RAW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A1538-4C0C-9643-A4A9-55F49A58586F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E695EA-F749-9747-AFD6-0D054E3CAF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="2860" windowWidth="27240" windowHeight="16440" xr2:uid="{43A315FC-1DB8-444B-8829-8B32831048B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1897,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D85BFA-18E2-E245-B418-9A1DD852B38D}">
   <dimension ref="A1:I481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8701,7 +8693,7 @@
         <v>197</v>
       </c>
       <c r="C220" s="1">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="D220" s="1">
         <v>85.5</v>
@@ -8714,11 +8706,11 @@
       </c>
       <c r="G220" s="2">
         <f t="shared" si="6"/>
-        <v>82.875</v>
+        <v>82.75</v>
       </c>
       <c r="H220" s="2">
         <f t="shared" si="7"/>
-        <v>331.5</v>
+        <v>331</v>
       </c>
       <c r="I220" s="1">
         <v>2016</v>
